--- a/admin/telemarketing_stuff/Recap Tele per Day n Absen.xlsx
+++ b/admin/telemarketing_stuff/Recap Tele per Day n Absen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\admin\telemarketing_stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FC2386-0DB8-4D6A-BD63-2EAE94419CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953D92C-EBF3-4CBB-BFC7-894F28EE6BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <t>Riri Khoiriyah</t>
   </si>
   <si>
-    <t>April</t>
+    <t>May</t>
   </si>
 </sst>
 </file>
@@ -419,12 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,6 +427,12 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M173"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,14 +760,14 @@
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
@@ -776,12 +776,12 @@
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>44593</v>
       </c>
       <c r="B6" s="6"/>
@@ -830,7 +830,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
-      <c r="H6" s="32"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
@@ -838,13 +838,13 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -852,13 +852,13 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
@@ -866,13 +866,13 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
@@ -880,13 +880,13 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="33"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -894,13 +894,13 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -908,7 +908,7 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>44594</v>
       </c>
       <c r="B12" s="1"/>
@@ -916,7 +916,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="H12" s="32"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
@@ -924,13 +924,13 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="33"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
@@ -938,13 +938,13 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
@@ -952,13 +952,13 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
@@ -966,13 +966,13 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
@@ -980,13 +980,13 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
-      <c r="H17" s="34"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
@@ -994,7 +994,7 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>44595</v>
       </c>
       <c r="B18" s="1"/>
@@ -1002,7 +1002,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
@@ -1010,13 +1010,13 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
@@ -1024,13 +1024,13 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
@@ -1038,13 +1038,13 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
@@ -1052,13 +1052,13 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
@@ -1066,13 +1066,13 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
@@ -1080,7 +1080,7 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>44596</v>
       </c>
       <c r="B24" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
-      <c r="H24" s="32"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
@@ -1096,13 +1096,13 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
-      <c r="H25" s="33"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
@@ -1110,13 +1110,13 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
@@ -1124,13 +1124,13 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
@@ -1138,13 +1138,13 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
-      <c r="H28" s="33"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
@@ -1152,13 +1152,13 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
@@ -1166,7 +1166,7 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>44597</v>
       </c>
       <c r="B30" s="1"/>
@@ -1174,7 +1174,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
-      <c r="H30" s="32"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
@@ -1182,13 +1182,13 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
@@ -1196,13 +1196,13 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
@@ -1210,13 +1210,13 @@
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
@@ -1224,13 +1224,13 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
@@ -1238,13 +1238,13 @@
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
@@ -1252,7 +1252,7 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="30">
         <v>44598</v>
       </c>
       <c r="B36" s="1"/>
@@ -1260,7 +1260,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
@@ -1268,13 +1268,13 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
-      <c r="H37" s="33"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
@@ -1282,13 +1282,13 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
-      <c r="H38" s="33"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
@@ -1296,13 +1296,13 @@
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="H39" s="33"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
@@ -1310,13 +1310,13 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="1"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
@@ -1324,13 +1324,13 @@
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
-      <c r="H41" s="34"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
@@ -1338,7 +1338,7 @@
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <v>44599</v>
       </c>
       <c r="B42" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -1356,7 +1356,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -1364,7 +1364,7 @@
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
@@ -1372,7 +1372,7 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
@@ -1380,7 +1380,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
@@ -1388,7 +1388,7 @@
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>44600</v>
       </c>
       <c r="B48" s="1"/>
@@ -1398,7 +1398,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -1406,7 +1406,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -1414,7 +1414,7 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
@@ -1422,7 +1422,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -1430,7 +1430,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
@@ -1438,7 +1438,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>44601</v>
       </c>
       <c r="B54" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -1456,7 +1456,7 @@
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
@@ -1464,7 +1464,7 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -1472,7 +1472,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -1480,7 +1480,7 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -1488,7 +1488,7 @@
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
+      <c r="A60" s="30">
         <v>44602</v>
       </c>
       <c r="B60" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
@@ -1506,7 +1506,7 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -1514,7 +1514,7 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -1522,7 +1522,7 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
@@ -1530,7 +1530,7 @@
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
@@ -1538,7 +1538,7 @@
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32">
+      <c r="A66" s="30">
         <v>44603</v>
       </c>
       <c r="B66" s="1"/>
@@ -1548,7 +1548,7 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -1556,7 +1556,7 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -1564,7 +1564,7 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -1572,7 +1572,7 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -1580,7 +1580,7 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
@@ -1588,7 +1588,7 @@
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32">
+      <c r="A72" s="30">
         <v>44604</v>
       </c>
       <c r="B72" s="1"/>
@@ -1598,7 +1598,7 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
@@ -1606,7 +1606,7 @@
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
@@ -1614,7 +1614,7 @@
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
@@ -1622,7 +1622,7 @@
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -1630,7 +1630,7 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -1638,7 +1638,7 @@
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32">
+      <c r="A78" s="30">
         <v>44605</v>
       </c>
       <c r="B78" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
@@ -1656,7 +1656,7 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -1664,7 +1664,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
@@ -1672,7 +1672,7 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
@@ -1680,7 +1680,7 @@
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
@@ -1688,7 +1688,7 @@
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32">
+      <c r="A84" s="30">
         <v>44606</v>
       </c>
       <c r="B84" s="1"/>
@@ -1698,7 +1698,7 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -1706,7 +1706,7 @@
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -1714,7 +1714,7 @@
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -1722,7 +1722,7 @@
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -1730,7 +1730,7 @@
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -1738,7 +1738,7 @@
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32">
+      <c r="A90" s="30">
         <v>44607</v>
       </c>
       <c r="B90" s="1"/>
@@ -1748,7 +1748,7 @@
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
@@ -1756,7 +1756,7 @@
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
@@ -1764,7 +1764,7 @@
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -1772,7 +1772,7 @@
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
@@ -1780,7 +1780,7 @@
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -1788,7 +1788,7 @@
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32">
+      <c r="A96" s="30">
         <v>44608</v>
       </c>
       <c r="B96" s="1"/>
@@ -1798,7 +1798,7 @@
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -1806,7 +1806,7 @@
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -1814,7 +1814,7 @@
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -1822,7 +1822,7 @@
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -1830,7 +1830,7 @@
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -1838,7 +1838,7 @@
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32">
+      <c r="A102" s="30">
         <v>44609</v>
       </c>
       <c r="B102" s="1"/>
@@ -1848,7 +1848,7 @@
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
@@ -1856,7 +1856,7 @@
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
@@ -1864,7 +1864,7 @@
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
@@ -1872,7 +1872,7 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -1880,7 +1880,7 @@
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="34"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
@@ -1888,7 +1888,7 @@
       <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32">
+      <c r="A108" s="30">
         <v>44610</v>
       </c>
       <c r="B108" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
@@ -1906,7 +1906,7 @@
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="33"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
@@ -1914,7 +1914,7 @@
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
@@ -1922,7 +1922,7 @@
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
@@ -1930,7 +1930,7 @@
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
@@ -1938,7 +1938,7 @@
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32">
+      <c r="A114" s="30">
         <v>44611</v>
       </c>
       <c r="B114" s="1"/>
@@ -1948,7 +1948,7 @@
       <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
@@ -1956,7 +1956,7 @@
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
@@ -1964,7 +1964,7 @@
       <c r="F116" s="5"/>
     </row>
     <row r="117" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
@@ -1972,7 +1972,7 @@
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
@@ -1980,7 +1980,7 @@
       <c r="F118" s="5"/>
     </row>
     <row r="119" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="34"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
@@ -1988,7 +1988,7 @@
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32">
+      <c r="A120" s="30">
         <v>44612</v>
       </c>
       <c r="B120" s="1"/>
@@ -1998,7 +1998,7 @@
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
@@ -2006,7 +2006,7 @@
       <c r="F121" s="5"/>
     </row>
     <row r="122" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
@@ -2014,7 +2014,7 @@
       <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
@@ -2022,7 +2022,7 @@
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -2030,7 +2030,7 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="34"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
@@ -2038,7 +2038,7 @@
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32">
+      <c r="A126" s="30">
         <v>44613</v>
       </c>
       <c r="B126" s="1"/>
@@ -2048,7 +2048,7 @@
       <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
@@ -2056,7 +2056,7 @@
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
@@ -2064,7 +2064,7 @@
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
@@ -2072,7 +2072,7 @@
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
@@ -2080,7 +2080,7 @@
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="34"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
@@ -2088,7 +2088,7 @@
       <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="32">
+      <c r="A132" s="30">
         <v>44614</v>
       </c>
       <c r="B132" s="1"/>
@@ -2098,7 +2098,7 @@
       <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
@@ -2106,7 +2106,7 @@
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
@@ -2114,7 +2114,7 @@
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
@@ -2122,7 +2122,7 @@
       <c r="F135" s="5"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
@@ -2130,7 +2130,7 @@
       <c r="F136" s="5"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
@@ -2138,7 +2138,7 @@
       <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="32">
+      <c r="A138" s="30">
         <v>44615</v>
       </c>
       <c r="B138" s="1"/>
@@ -2148,7 +2148,7 @@
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
@@ -2156,7 +2156,7 @@
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
@@ -2164,7 +2164,7 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -2172,7 +2172,7 @@
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="33"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -2180,7 +2180,7 @@
       <c r="F142" s="5"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="34"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -2188,7 +2188,7 @@
       <c r="F143" s="5"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="32">
+      <c r="A144" s="30">
         <v>44616</v>
       </c>
       <c r="B144" s="1"/>
@@ -2198,7 +2198,7 @@
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="33"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -2206,7 +2206,7 @@
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="33"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -2214,7 +2214,7 @@
       <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -2222,7 +2222,7 @@
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="33"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
@@ -2230,7 +2230,7 @@
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
@@ -2238,7 +2238,7 @@
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="32">
+      <c r="A150" s="30">
         <v>44617</v>
       </c>
       <c r="B150" s="1"/>
@@ -2248,7 +2248,7 @@
       <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
@@ -2256,7 +2256,7 @@
       <c r="F151" s="5"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
@@ -2264,7 +2264,7 @@
       <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
@@ -2272,7 +2272,7 @@
       <c r="F153" s="5"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
@@ -2280,7 +2280,7 @@
       <c r="F154" s="5"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
@@ -2288,7 +2288,7 @@
       <c r="F155" s="5"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="32">
+      <c r="A156" s="30">
         <v>44618</v>
       </c>
       <c r="B156" s="1"/>
@@ -2298,7 +2298,7 @@
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
@@ -2306,7 +2306,7 @@
       <c r="F157" s="5"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="33"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
@@ -2314,7 +2314,7 @@
       <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
@@ -2322,7 +2322,7 @@
       <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
@@ -2330,7 +2330,7 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="34"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
@@ -2338,7 +2338,7 @@
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="32">
+      <c r="A162" s="30">
         <v>44619</v>
       </c>
       <c r="B162" s="1"/>
@@ -2348,7 +2348,7 @@
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="33"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
@@ -2356,7 +2356,7 @@
       <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="33"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
@@ -2364,7 +2364,7 @@
       <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
@@ -2372,7 +2372,7 @@
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="33"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
@@ -2380,7 +2380,7 @@
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="34"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
@@ -2388,7 +2388,7 @@
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="32">
+      <c r="A168" s="30">
         <v>44620</v>
       </c>
       <c r="B168" s="1"/>
@@ -2398,7 +2398,7 @@
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="33"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
@@ -2406,7 +2406,7 @@
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="33"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
@@ -2414,7 +2414,7 @@
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
@@ -2422,7 +2422,7 @@
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="33"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
@@ -2430,7 +2430,7 @@
       <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="34"/>
+      <c r="A173" s="32"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
@@ -2439,6 +2439,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:M4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A54:A59"/>
     <mergeCell ref="A162:A167"/>
     <mergeCell ref="A168:A173"/>
     <mergeCell ref="H6:H11"/>
@@ -2455,26 +2475,6 @@
     <mergeCell ref="A84:A89"/>
     <mergeCell ref="A90:A95"/>
     <mergeCell ref="A96:A101"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="H3:M4"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="105" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2485,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76BBB65-8141-40BC-A79F-2A49B67AA521}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,52 +2665,52 @@
         <v>14</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="N6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="P6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="Q6" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2919,49 +2919,49 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="I16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="J16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="L16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="M16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="N16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="O16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="P16" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
